--- a/regions/7/infrastruqtura/infrastruqtura.xlsx
+++ b/regions/7/infrastruqtura/infrastruqtura.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -575,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -587,7 +587,7 @@
     <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -602,8 +602,10 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="4"/>
       <c r="B2" s="5">
         <v>2011</v>
@@ -638,8 +640,14 @@
       <c r="L2" s="5">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -676,8 +684,14 @@
       <c r="L3" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="10">
+        <v>100</v>
+      </c>
+      <c r="N3" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -714,8 +728,14 @@
       <c r="L4" s="11">
         <v>28.402939769661639</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1">
+      <c r="M4" s="11">
+        <v>25.542053990758649</v>
+      </c>
+      <c r="N4" s="11">
+        <v>27.652670937741767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -730,8 +750,10 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="4"/>
       <c r="B8" s="5">
         <v>2011</v>
@@ -766,8 +788,14 @@
       <c r="L8" s="5">
         <v>2021</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="5">
+        <v>2022</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -804,8 +832,14 @@
       <c r="L9" s="12">
         <v>65.888768100811205</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="12">
+        <v>68.651414497156381</v>
+      </c>
+      <c r="N9" s="12">
+        <v>75.248534546748957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
@@ -842,8 +876,14 @@
       <c r="L10" s="12">
         <v>23.780133609230941</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="12">
+        <v>19.994684647231828</v>
+      </c>
+      <c r="N10" s="12">
+        <v>16.464411706672134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
@@ -880,8 +920,14 @@
       <c r="L11" s="12">
         <v>4.4548221792326785</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="12">
+        <v>3.3818846746149238</v>
+      </c>
+      <c r="N11" s="12">
+        <v>1.5963711713247239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -918,8 +964,14 @@
       <c r="L12" s="12">
         <v>5.8762761107251382</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="12">
+        <v>7.9720161809968726</v>
+      </c>
+      <c r="N12" s="12">
+        <v>6.6906825752541899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -956,8 +1008,14 @@
       <c r="L13" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
@@ -972,8 +1030,10 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -986,9 +1046,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
